--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfa-Kdr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H2">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I2">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J2">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N2">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O2">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P2">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q2">
-        <v>546.913765864817</v>
+        <v>364.4937572059671</v>
       </c>
       <c r="R2">
-        <v>4922.223892783353</v>
+        <v>3280.443814853704</v>
       </c>
       <c r="S2">
-        <v>0.05205059572329665</v>
+        <v>0.06285383814452136</v>
       </c>
       <c r="T2">
-        <v>0.05205059572329664</v>
+        <v>0.06285383814452136</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H3">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I3">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J3">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O3">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P3">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q3">
-        <v>0.8761354006065557</v>
+        <v>0.6974418092715555</v>
       </c>
       <c r="R3">
-        <v>7.885218605459001</v>
+        <v>6.276976283444</v>
       </c>
       <c r="S3">
-        <v>8.338310787209617E-05</v>
+        <v>0.0001202678886223153</v>
       </c>
       <c r="T3">
-        <v>8.338310787209615E-05</v>
+        <v>0.0001202678886223153</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H4">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I4">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J4">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N4">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O4">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P4">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q4">
-        <v>17.60646702681534</v>
+        <v>23.93781885926755</v>
       </c>
       <c r="R4">
-        <v>158.458203241338</v>
+        <v>215.440369733408</v>
       </c>
       <c r="S4">
-        <v>0.001675633627321853</v>
+        <v>0.004127872596904501</v>
       </c>
       <c r="T4">
-        <v>0.001675633627321852</v>
+        <v>0.0041278725969045</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H5">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I5">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J5">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N5">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O5">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P5">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q5">
-        <v>0.5109961616832224</v>
+        <v>0.32170563478</v>
       </c>
       <c r="R5">
-        <v>4.598965455149001</v>
+        <v>2.89535071302</v>
       </c>
       <c r="S5">
-        <v>4.863226396554807E-05</v>
+        <v>5.547539155030443E-05</v>
       </c>
       <c r="T5">
-        <v>4.863226396554806E-05</v>
+        <v>5.547539155030443E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H6">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I6">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J6">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N6">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O6">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P6">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q6">
-        <v>9.744041891776112</v>
+        <v>7.762348065684889</v>
       </c>
       <c r="R6">
-        <v>87.69637702598502</v>
+        <v>69.86113259116399</v>
       </c>
       <c r="S6">
-        <v>0.0009273549449202704</v>
+        <v>0.00133855068652465</v>
       </c>
       <c r="T6">
-        <v>0.0009273549449202704</v>
+        <v>0.00133855068652465</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>53.22644</v>
       </c>
       <c r="I7">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J7">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N7">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O7">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P7">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q7">
-        <v>2522.19399397484</v>
+        <v>2111.606436366764</v>
       </c>
       <c r="R7">
-        <v>22699.74594577356</v>
+        <v>19004.45792730088</v>
       </c>
       <c r="S7">
-        <v>0.2400409499814286</v>
+        <v>0.3641285112637133</v>
       </c>
       <c r="T7">
-        <v>0.2400409499814286</v>
+        <v>0.3641285112637133</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>53.22644</v>
       </c>
       <c r="I8">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J8">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O8">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P8">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q8">
         <v>4.040460458742222</v>
@@ -948,10 +948,10 @@
         <v>36.36414412868</v>
       </c>
       <c r="S8">
-        <v>0.0003845366253332521</v>
+        <v>0.0006967429281912669</v>
       </c>
       <c r="T8">
-        <v>0.0003845366253332521</v>
+        <v>0.0006967429281912668</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>53.22644</v>
       </c>
       <c r="I9">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J9">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N9">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O9">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P9">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q9">
-        <v>81.19547936397333</v>
+        <v>138.6779646468622</v>
       </c>
       <c r="R9">
-        <v>730.7593142757599</v>
+        <v>1248.10168182176</v>
       </c>
       <c r="S9">
-        <v>0.007727494414499849</v>
+        <v>0.0239138316412922</v>
       </c>
       <c r="T9">
-        <v>0.007727494414499848</v>
+        <v>0.0239138316412922</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>53.22644</v>
       </c>
       <c r="I10">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J10">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N10">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O10">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P10">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q10">
-        <v>2.356553318608889</v>
+        <v>1.8637237966</v>
       </c>
       <c r="R10">
-        <v>21.20897986748</v>
+        <v>16.7735141694</v>
       </c>
       <c r="S10">
-        <v>0.0002242766807914335</v>
+        <v>0.0003213832652595882</v>
       </c>
       <c r="T10">
-        <v>0.0002242766807914335</v>
+        <v>0.0003213832652595882</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>53.22644</v>
       </c>
       <c r="I11">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J11">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N11">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O11">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P11">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q11">
-        <v>44.93645154024444</v>
+        <v>44.96928633967556</v>
       </c>
       <c r="R11">
-        <v>404.4280638622</v>
+        <v>404.72357705708</v>
       </c>
       <c r="S11">
-        <v>0.004276668861428709</v>
+        <v>0.007754569698902735</v>
       </c>
       <c r="T11">
-        <v>0.004276668861428709</v>
+        <v>0.007754569698902735</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H12">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I12">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J12">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N12">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O12">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P12">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q12">
-        <v>3097.821373800107</v>
+        <v>1579.984096885298</v>
       </c>
       <c r="R12">
-        <v>27880.39236420096</v>
+        <v>14219.85687196768</v>
       </c>
       <c r="S12">
-        <v>0.294824263009156</v>
+        <v>0.2724547752416774</v>
       </c>
       <c r="T12">
-        <v>0.294824263009156</v>
+        <v>0.2724547752416774</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H13">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I13">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J13">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O13">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P13">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q13">
-        <v>4.962593995143223</v>
+        <v>3.023225899941222</v>
       </c>
       <c r="R13">
-        <v>44.66334595628901</v>
+        <v>27.209033099471</v>
       </c>
       <c r="S13">
-        <v>0.0004722974441347413</v>
+        <v>0.0005213295087571386</v>
       </c>
       <c r="T13">
-        <v>0.0004722974441347413</v>
+        <v>0.0005213295087571384</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H14">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I14">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J14">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N14">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O14">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P14">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q14">
-        <v>99.72630655315535</v>
+        <v>103.7641176674302</v>
       </c>
       <c r="R14">
-        <v>897.5367589783981</v>
+        <v>933.8770590068719</v>
       </c>
       <c r="S14">
-        <v>0.009491100771924752</v>
+        <v>0.01789323665533265</v>
       </c>
       <c r="T14">
-        <v>0.00949110077192475</v>
+        <v>0.01789323665533265</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H15">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I15">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J15">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N15">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O15">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P15">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q15">
-        <v>2.89437737791989</v>
+        <v>1.394508895645</v>
       </c>
       <c r="R15">
-        <v>26.049396401279</v>
+        <v>12.550580060805</v>
       </c>
       <c r="S15">
-        <v>0.0002754621956361606</v>
+        <v>0.000240471159478424</v>
       </c>
       <c r="T15">
-        <v>0.0002754621956361606</v>
+        <v>0.000240471159478424</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H16">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I16">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J16">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N16">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O16">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P16">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q16">
-        <v>55.19206705615944</v>
+        <v>33.64772717174456</v>
       </c>
       <c r="R16">
-        <v>496.728603505435</v>
+        <v>302.829544545701</v>
       </c>
       <c r="S16">
-        <v>0.005252711028274449</v>
+        <v>0.005802263429134044</v>
       </c>
       <c r="T16">
-        <v>0.005252711028274449</v>
+        <v>0.005802263429134043</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H17">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I17">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J17">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N17">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O17">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P17">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q17">
-        <v>838.296411806582</v>
+        <v>411.3047325063106</v>
       </c>
       <c r="R17">
-        <v>7544.667706259237</v>
+        <v>3701.742592556795</v>
       </c>
       <c r="S17">
-        <v>0.07978191508534777</v>
+        <v>0.07092599138925412</v>
       </c>
       <c r="T17">
-        <v>0.07978191508534775</v>
+        <v>0.07092599138925412</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H18">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I18">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J18">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O18">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P18">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q18">
-        <v>1.342919502901555</v>
+        <v>0.7870124278673334</v>
       </c>
       <c r="R18">
-        <v>12.086275526114</v>
+        <v>7.083111850806</v>
       </c>
       <c r="S18">
-        <v>0.0001278076444536537</v>
+        <v>0.0001357135774782218</v>
       </c>
       <c r="T18">
-        <v>0.0001278076444536537</v>
+        <v>0.0001357135774782217</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H19">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I19">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J19">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N19">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O19">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P19">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q19">
-        <v>26.98677388350534</v>
+        <v>27.01209002362133</v>
       </c>
       <c r="R19">
-        <v>242.880964951548</v>
+        <v>243.108810212592</v>
       </c>
       <c r="S19">
-        <v>0.002568371368501184</v>
+        <v>0.004658004425931882</v>
       </c>
       <c r="T19">
-        <v>0.002568371368501184</v>
+        <v>0.004658004425931881</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H20">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I20">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J20">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N20">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O20">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P20">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q20">
-        <v>0.7832427624282223</v>
+        <v>0.36302144397</v>
       </c>
       <c r="R20">
-        <v>7.049184861854</v>
+        <v>3.26719299573</v>
       </c>
       <c r="S20">
-        <v>7.454237747313594E-05</v>
+        <v>6.259995029047172E-05</v>
       </c>
       <c r="T20">
-        <v>7.454237747313592E-05</v>
+        <v>6.259995029047172E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H21">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I21">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J21">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N21">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O21">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P21">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q21">
-        <v>14.93543564670111</v>
+        <v>8.759246027287332</v>
       </c>
       <c r="R21">
-        <v>134.41892082031</v>
+        <v>78.83321424558599</v>
       </c>
       <c r="S21">
-        <v>0.001421427602153108</v>
+        <v>0.001510457233307443</v>
       </c>
       <c r="T21">
-        <v>0.001421427602153108</v>
+        <v>0.001510457233307443</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H22">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I22">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J22">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N22">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O22">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P22">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q22">
-        <v>2977.57594226817</v>
+        <v>853.9980967539104</v>
       </c>
       <c r="R22">
-        <v>26798.18348041353</v>
+        <v>7685.982870785195</v>
       </c>
       <c r="S22">
-        <v>0.2833803266248792</v>
+        <v>0.147264684477896</v>
       </c>
       <c r="T22">
-        <v>0.2833803266248792</v>
+        <v>0.147264684477896</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H23">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I23">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J23">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O23">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P23">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q23">
-        <v>4.76996531051</v>
+        <v>1.634085539023223</v>
       </c>
       <c r="R23">
-        <v>42.92968779459</v>
+        <v>14.706769851209</v>
       </c>
       <c r="S23">
-        <v>0.0004539646860029364</v>
+        <v>0.000281784107281789</v>
       </c>
       <c r="T23">
-        <v>0.0004539646860029364</v>
+        <v>0.000281784107281789</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H24">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I24">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J24">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N24">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O24">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P24">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q24">
-        <v>95.85531745482001</v>
+        <v>56.08560185765423</v>
       </c>
       <c r="R24">
-        <v>862.6978570933801</v>
+        <v>504.770416718888</v>
       </c>
       <c r="S24">
-        <v>0.009122692987768622</v>
+        <v>0.009671483452615235</v>
       </c>
       <c r="T24">
-        <v>0.00912269298776862</v>
+        <v>0.009671483452615233</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H25">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I25">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J25">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N25">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O25">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P25">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q25">
-        <v>2.78202885461</v>
+        <v>0.7537467909550001</v>
       </c>
       <c r="R25">
-        <v>25.03825969149</v>
+        <v>6.783721118595001</v>
       </c>
       <c r="S25">
-        <v>0.0002647698197409123</v>
+        <v>0.0001299772022538837</v>
       </c>
       <c r="T25">
-        <v>0.0002647698197409123</v>
+        <v>0.0001299772022538837</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H26">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I26">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J26">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N26">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O26">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P26">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q26">
-        <v>53.04972470665</v>
+        <v>18.18695202148656</v>
       </c>
       <c r="R26">
-        <v>477.44752235985</v>
+        <v>163.682568193379</v>
       </c>
       <c r="S26">
-        <v>0.005048821123695276</v>
+        <v>0.003136184683829142</v>
       </c>
       <c r="T26">
-        <v>0.005048821123695276</v>
+        <v>0.003136184683829142</v>
       </c>
     </row>
   </sheetData>
